--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_466__Reeval_Halton_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_466__Reeval_Halton_Modell_1.2.xlsx
@@ -5987,16 +5987,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>95.77642059326172</c:v>
+                  <c:v>95.77640533447266</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.515699863433838</c:v>
+                  <c:v>2.515699625015259</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>72.39325714111328</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8608779311180115</c:v>
+                  <c:v>0.860877513885498</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>97.63397979736328</c:v>
@@ -6008,106 +6008,106 @@
                   <c:v>96.10193634033203</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.5711408853530884</c:v>
+                  <c:v>-0.571141242980957</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>27.59672164916992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>95.3734130859375</c:v>
+                  <c:v>95.37342834472656</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>92.36493682861328</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43.12671279907227</c:v>
+                  <c:v>43.12671661376953</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>92.15547180175781</c:v>
+                  <c:v>92.15546417236328</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>98.69376373291016</c:v>
+                  <c:v>98.69375610351562</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.057258129119873</c:v>
+                  <c:v>1.057254433631897</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-2.132030010223389</c:v>
+                  <c:v>-2.132030725479126</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>88.11837768554688</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.776342630386353</c:v>
+                  <c:v>3.776341915130615</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>65.26029205322266</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>33.80421829223633</c:v>
+                  <c:v>33.80421447753906</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>72.94879913330078</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.8526686429977417</c:v>
+                  <c:v>-0.8526700735092163</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>95.94245910644531</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18.76311111450195</c:v>
+                  <c:v>18.76311302185059</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.6565648913383484</c:v>
+                  <c:v>0.6565645337104797</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5.058789253234863</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>53.03650283813477</c:v>
+                  <c:v>53.03650665283203</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-1.698118686676025</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>95.83934020996094</c:v>
+                  <c:v>95.83933258056641</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>96.24700927734375</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>67.77329254150391</c:v>
+                  <c:v>67.77330780029297</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>25.68816566467285</c:v>
+                  <c:v>25.68816757202148</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-0.7813249230384827</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.292659729719162</c:v>
+                  <c:v>-0.2926604747772217</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>83.23783111572266</c:v>
+                  <c:v>83.23784637451172</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-1.449523448944092</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>84.05854797363281</c:v>
+                  <c:v>84.05855560302734</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10.69669628143311</c:v>
+                  <c:v>10.69669342041016</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>97.02466583251953</c:v>
+                  <c:v>97.024658203125</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>26.21866035461426</c:v>
+                  <c:v>26.21866607666016</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>86.67308044433594</c:v>
+                  <c:v>86.67308807373047</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>89.569091796875</c:v>
@@ -6119,37 +6119,37 @@
                   <c:v>47.79998779296875</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>74.5338134765625</c:v>
+                  <c:v>74.53382873535156</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>92.26994323730469</c:v>
+                  <c:v>92.26993560791016</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>90.9642333984375</c:v>
+                  <c:v>90.96424865722656</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.537649393081665</c:v>
+                  <c:v>0.5376490354537964</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>85.28908538818359</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>97.25607299804688</c:v>
+                  <c:v>97.25605010986328</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>39.46483612060547</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.390264868736267</c:v>
+                  <c:v>1.390265345573425</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.69609260559082</c:v>
+                  <c:v>4.696089267730713</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>-0.4912222921848297</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>93.3016357421875</c:v>
+                  <c:v>93.30165100097656</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>64.81428527832031</c:v>
@@ -6158,13 +6158,13 @@
                   <c:v>54.43145751953125</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>23.04592323303223</c:v>
+                  <c:v>23.04593086242676</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>98.23636627197266</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-1.324923634529114</c:v>
+                  <c:v>-1.324923992156982</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>90.67302703857422</c:v>
@@ -6173,13 +6173,13 @@
                   <c:v>-1.491345405578613</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>90.61208343505859</c:v>
+                  <c:v>90.61207580566406</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>87.88140106201172</c:v>
+                  <c:v>87.88139343261719</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>55.16817092895508</c:v>
+                  <c:v>55.16816329956055</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>-1.441898226737976</c:v>
@@ -6188,28 +6188,28 @@
                   <c:v>95.62762451171875</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>77.85423278808594</c:v>
+                  <c:v>77.854248046875</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.728404521942139</c:v>
+                  <c:v>2.728403329849243</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>0.6625045537948608</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>96.55691528320312</c:v>
+                  <c:v>96.55692291259766</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>96.58401489257812</c:v>
+                  <c:v>96.583984375</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>94.11806488037109</c:v>
+                  <c:v>94.11807250976562</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>96.76679229736328</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.2221505641937256</c:v>
+                  <c:v>0.2221502065658569</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>51.10962677001953</c:v>
@@ -6224,22 +6224,22 @@
                   <c:v>50.98653411865234</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.4525529444217682</c:v>
+                  <c:v>-0.4525536894798279</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>92.04692840576172</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>97.86537170410156</c:v>
+                  <c:v>97.86537933349609</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-1.767780065536499</c:v>
+                  <c:v>-1.767780423164368</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>72.9080810546875</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>52.40002059936523</c:v>
+                  <c:v>52.40001678466797</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>94.22813415527344</c:v>
@@ -6251,7 +6251,7 @@
                   <c:v>30.70986366271973</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>95.68994140625</c:v>
+                  <c:v>95.68993377685547</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>60.38961410522461</c:v>
@@ -6260,28 +6260,28 @@
                   <c:v>-0.09713683277368546</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>72.3187255859375</c:v>
+                  <c:v>72.31871795654297</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>95.64258575439453</c:v>
+                  <c:v>95.64259338378906</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-2.626283407211304</c:v>
+                  <c:v>-2.626282691955566</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>93.89848327636719</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-1.36179780960083</c:v>
+                  <c:v>-1.361796379089355</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>84.75465393066406</c:v>
+                  <c:v>84.75464630126953</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>7.550985336303711</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>57.05546188354492</c:v>
+                  <c:v>57.05546951293945</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>99.69394683837891</c:v>
@@ -6979,7 +6979,7 @@
         <v>96.2991</v>
       </c>
       <c r="F2">
-        <v>95.77642059326172</v>
+        <v>95.77640533447266</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.515699863433838</v>
+        <v>2.515699625015259</v>
       </c>
       <c r="G3">
         <v>141</v>
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8608779311180115</v>
+        <v>0.860877513885498</v>
       </c>
       <c r="G5">
         <v>141</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-0.5711408853530884</v>
+        <v>-0.571141242980957</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>94.40819999999999</v>
       </c>
       <c r="F11">
-        <v>95.3734130859375</v>
+        <v>95.37342834472656</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>43.12671279907227</v>
+        <v>43.12671661376953</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>97.7777</v>
       </c>
       <c r="F14">
-        <v>92.15547180175781</v>
+        <v>92.15546417236328</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7311,7 +7311,7 @@
         <v>93.9735</v>
       </c>
       <c r="F15">
-        <v>98.69376373291016</v>
+        <v>98.69375610351562</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.057258129119873</v>
+        <v>1.057254433631897</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>-2.132030010223389</v>
+        <v>-2.132030725479126</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.776342630386353</v>
+        <v>3.776341915130615</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>33.80421829223633</v>
+        <v>33.80421447753906</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>-0.8526686429977417</v>
+        <v>-0.8526700735092163</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>18.76311111450195</v>
+        <v>18.76311302185059</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.6565648913383484</v>
+        <v>0.6565645337104797</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>55.7988</v>
       </c>
       <c r="F28">
-        <v>53.03650283813477</v>
+        <v>53.03650665283203</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>90.9726</v>
       </c>
       <c r="F30">
-        <v>95.83934020996094</v>
+        <v>95.83933258056641</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>86.7184</v>
       </c>
       <c r="F32">
-        <v>67.77329254150391</v>
+        <v>67.77330780029297</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>24.6551</v>
       </c>
       <c r="F33">
-        <v>25.68816566467285</v>
+        <v>25.68816757202148</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-0.292659729719162</v>
+        <v>-0.2926604747772217</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>94.44029999999999</v>
       </c>
       <c r="F36">
-        <v>83.23783111572266</v>
+        <v>83.23784637451172</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>86.19970000000001</v>
       </c>
       <c r="F38">
-        <v>84.05854797363281</v>
+        <v>84.05855560302734</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>10.69669628143311</v>
+        <v>10.69669342041016</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>97.63800000000001</v>
       </c>
       <c r="F40">
-        <v>97.02466583251953</v>
+        <v>97.024658203125</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>36.7921</v>
       </c>
       <c r="F41">
-        <v>26.21866035461426</v>
+        <v>26.21866607666016</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>41.033</v>
       </c>
       <c r="F42">
-        <v>86.67308044433594</v>
+        <v>86.67308807373047</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>90.426</v>
       </c>
       <c r="F46">
-        <v>74.5338134765625</v>
+        <v>74.53382873535156</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>92.2792</v>
       </c>
       <c r="F47">
-        <v>92.26994323730469</v>
+        <v>92.26993560791016</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>95.2355</v>
       </c>
       <c r="F48">
-        <v>90.9642333984375</v>
+        <v>90.96424865722656</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0.537649393081665</v>
+        <v>0.5376490354537964</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>97.8107</v>
       </c>
       <c r="F51">
-        <v>97.25607299804688</v>
+        <v>97.25605010986328</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.390264868736267</v>
+        <v>1.390265345573425</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>55.2559</v>
       </c>
       <c r="F54">
-        <v>4.69609260559082</v>
+        <v>4.696089267730713</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>92.9953</v>
       </c>
       <c r="F56">
-        <v>93.3016357421875</v>
+        <v>93.30165100097656</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>23.04592323303223</v>
+        <v>23.04593086242676</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>-1.324923634529114</v>
+        <v>-1.324923992156982</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>72.6528</v>
       </c>
       <c r="F64">
-        <v>90.61208343505859</v>
+        <v>90.61207580566406</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>91.5611</v>
       </c>
       <c r="F65">
-        <v>87.88140106201172</v>
+        <v>87.88139343261719</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>39.3514</v>
       </c>
       <c r="F66">
-        <v>55.16817092895508</v>
+        <v>55.16816329956055</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>85.733</v>
       </c>
       <c r="F69">
-        <v>77.85423278808594</v>
+        <v>77.854248046875</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>2.728404521942139</v>
+        <v>2.728403329849243</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>94.26949999999999</v>
       </c>
       <c r="F72">
-        <v>96.55691528320312</v>
+        <v>96.55692291259766</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>95.1549</v>
       </c>
       <c r="F73">
-        <v>96.58401489257812</v>
+        <v>96.583984375</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>95.4374</v>
       </c>
       <c r="F74">
-        <v>94.11806488037109</v>
+        <v>94.11807250976562</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0.2221505641937256</v>
+        <v>0.2221502065658569</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>-0.4525529444217682</v>
+        <v>-0.4525536894798279</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>97.5809</v>
       </c>
       <c r="F83">
-        <v>97.86537170410156</v>
+        <v>97.86537933349609</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-1.767780065536499</v>
+        <v>-1.767780423164368</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>52.40002059936523</v>
+        <v>52.40001678466797</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>93.3051</v>
       </c>
       <c r="F90">
-        <v>95.68994140625</v>
+        <v>95.68993377685547</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>54.1262</v>
       </c>
       <c r="F93">
-        <v>72.3187255859375</v>
+        <v>72.31871795654297</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>95.8237</v>
       </c>
       <c r="F94">
-        <v>95.64258575439453</v>
+        <v>95.64259338378906</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>-2.626283407211304</v>
+        <v>-2.626282691955566</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>-1.36179780960083</v>
+        <v>-1.361796379089355</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>94.0264</v>
       </c>
       <c r="F98">
-        <v>84.75465393066406</v>
+        <v>84.75464630126953</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>50.6355</v>
       </c>
       <c r="F100">
-        <v>57.05546188354492</v>
+        <v>57.05546951293945</v>
       </c>
     </row>
     <row r="101" spans="1:6">
